--- a/Jogos_do_Dia/2023-11-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1114,7 +1114,7 @@
         <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="n">
         <v>1.4</v>
@@ -1135,10 +1135,10 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1247,13 +1247,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="K7" t="n">
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1525,13 +1525,13 @@
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4.52</v>
+        <v>4.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1552,10 +1552,10 @@
         <v>2.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>

--- a/Jogos_do_Dia/2023-11-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1108,13 +1108,13 @@
         <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="M5" t="n">
         <v>1.4</v>
@@ -1135,10 +1135,10 @@
         <v>3.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1247,13 +1247,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
         <v>3.34</v>
       </c>
       <c r="S6" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.73</v>
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1525,13 +1525,13 @@
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.5</v>
@@ -1552,10 +1552,10 @@
         <v>2.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
